--- a/CallCenter/src/main/resources/templates/조회결과.xlsx
+++ b/CallCenter/src/main/resources/templates/조회결과.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문진수\Desktop\콜센터 통계 프로그램\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA020C9-D403-432C-AB1B-FCF6FED234CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD76D8B-60C7-486B-9D08-0895C9300FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28770" windowHeight="15570" xr2:uid="{9C1D6DAF-0346-4F5D-8377-7AA27EE1A99F}"/>
+    <workbookView xWindow="28830" yWindow="30" windowWidth="28770" windowHeight="15570" xr2:uid="{9C1D6DAF-0346-4F5D-8377-7AA27EE1A99F}"/>
   </bookViews>
   <sheets>
     <sheet name="조회결과" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>보이스봇</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,35 +62,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>응대율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합 계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응대접수율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>내선콜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>응대율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합 계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응대접수율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건설사</t>
+    <t>채팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,23 +643,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="20" max="20" width="10.25" customWidth="1"/>
+    <col min="23" max="23" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -664,24 +672,31 @@
         <v>3</v>
       </c>
       <c r="I1" s="9"/>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="P1" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="Q1" s="6"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -690,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -707,32 +722,41 @@
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -742,16 +766,19 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -761,16 +788,19 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -780,16 +810,19 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -799,16 +832,19 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -818,16 +854,19 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -837,16 +876,19 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -856,16 +898,19 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -875,16 +920,19 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -894,16 +942,19 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -913,16 +964,19 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -932,16 +986,19 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -951,16 +1008,19 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -970,17 +1030,20 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="T15" s="5"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -990,16 +1053,19 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1009,16 +1075,19 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1028,16 +1097,19 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1047,16 +1119,19 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1066,16 +1141,19 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1085,16 +1163,19 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1104,16 +1185,19 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1123,16 +1207,19 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1142,16 +1229,19 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1161,16 +1251,19 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1180,16 +1273,19 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1199,16 +1295,19 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1218,16 +1317,19 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1237,16 +1339,19 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1256,16 +1361,19 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1275,16 +1383,19 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1294,16 +1405,19 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1313,16 +1427,19 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1332,22 +1449,26 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="M1:Q1"/>
+  <mergeCells count="6">
+    <mergeCell ref="P1:T1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CallCenter/src/main/resources/templates/조회결과.xlsx
+++ b/CallCenter/src/main/resources/templates/조회결과.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문진수\Desktop\콜센터 통계 프로그램\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD76D8B-60C7-486B-9D08-0895C9300FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A8470B-FEAF-411E-93E3-58D76ADEA79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28830" yWindow="30" windowWidth="28770" windowHeight="15570" xr2:uid="{9C1D6DAF-0346-4F5D-8377-7AA27EE1A99F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>보이스봇</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,15 +90,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내선콜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개별</t>
+    <t>내선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,18 +639,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="23" max="23" width="10.25" customWidth="1"/>
+    <col min="22" max="22" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -673,11 +669,11 @@
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>5</v>
@@ -685,18 +681,15 @@
       <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -729,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>4</v>
@@ -737,26 +730,23 @@
       <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -771,14 +761,13 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -793,14 +782,13 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -815,14 +803,13 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -837,14 +824,13 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -859,14 +845,13 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -881,14 +866,13 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -903,14 +887,13 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -925,14 +908,13 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -947,14 +929,13 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -969,14 +950,13 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -991,14 +971,13 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1013,14 +992,13 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1035,15 +1013,14 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1058,14 +1035,13 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1080,14 +1056,13 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1102,14 +1077,13 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1124,14 +1098,13 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1146,14 +1119,13 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1168,14 +1140,13 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1190,14 +1161,13 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1212,14 +1182,13 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1234,14 +1203,13 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1256,14 +1224,13 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1278,14 +1245,13 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1300,14 +1266,13 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1322,14 +1287,13 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1344,14 +1308,13 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1366,14 +1329,13 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1388,14 +1350,13 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1410,14 +1371,13 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1432,14 +1392,13 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1454,16 +1413,15 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="O1:S1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
